--- a/openpose_automate_filename.xlsx
+++ b/openpose_automate_filename.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\gloriation\Hoopers\cv_analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\gloriation\proj\cv_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AEBA79E-178F-4EEE-8026-6E7AE7F147FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF573607-4ACE-4BE5-A24C-334B306D2691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="20190" windowHeight="16335" xr2:uid="{38B8E02B-1D4D-43E4-A4FC-33B8E9261FA9}"/>
+    <workbookView xWindow="2145" yWindow="2145" windowWidth="18225" windowHeight="11333" xr2:uid="{38B8E02B-1D4D-43E4-A4FC-33B8E9261FA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -114,14 +114,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -500,17 +500,17 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="21.7109375" customWidth="1"/>
     <col min="2" max="2" width="31.7109375" customWidth="1"/>
     <col min="3" max="3" width="32.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -531,7 +531,7 @@
         <v>.\bin\OpenPoseDemo.exe --video .\30fps_input\justin_frd1_shoot1_30fps_input.mp4 --write_video .\output_videos\justin_frd1_shoot1_30fps_output.avi --write_json .\output_jsons\justin_frd1_shoot1\ --write_images .\output_images\justin_frd1_shoot1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -552,7 +552,7 @@
         <v>.\bin\OpenPoseDemo.exe --video .\30fps_input\justin_frd1_shoot2_30fps_input.mp4 --write_video .\output_videos\justin_frd1_shoot2_30fps_output.avi --write_json .\output_jsons\justin_frd1_shoot2\ --write_images .\output_images\justin_frd1_shoot2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -573,7 +573,7 @@
         <v>.\bin\OpenPoseDemo.exe --video .\30fps_input\justin_frd1_shoot3_30fps_input.mp4 --write_video .\output_videos\justin_frd1_shoot3_30fps_output.avi --write_json .\output_jsons\justin_frd1_shoot3\ --write_images .\output_images\justin_frd1_shoot3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -594,7 +594,7 @@
         <v>.\bin\OpenPoseDemo.exe --video .\30fps_input\justin_frd1_shoot4_30fps_input.mp4 --write_video .\output_videos\justin_frd1_shoot4_30fps_output.avi --write_json .\output_jsons\justin_frd1_shoot4\ --write_images .\output_images\justin_frd1_shoot4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -615,7 +615,7 @@
         <v>.\bin\OpenPoseDemo.exe --video .\30fps_input\justin_frd1_shoot5_30fps_input.mp4 --write_video .\output_videos\justin_frd1_shoot5_30fps_output.avi --write_json .\output_jsons\justin_frd1_shoot5\ --write_images .\output_images\justin_frd1_shoot5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -636,7 +636,7 @@
         <v>.\bin\OpenPoseDemo.exe --video .\30fps_input\justin_frd2_shoot1_30fps_input.mp4 --write_video .\output_videos\justin_frd2_shoot1_30fps_output.avi --write_json .\output_jsons\justin_frd2_shoot1\ --write_images .\output_images\justin_frd2_shoot1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -657,7 +657,7 @@
         <v>.\bin\OpenPoseDemo.exe --video .\30fps_input\justin_frd2_shoot2_30fps_input.mp4 --write_video .\output_videos\justin_frd2_shoot2_30fps_output.avi --write_json .\output_jsons\justin_frd2_shoot2\ --write_images .\output_images\justin_frd2_shoot2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -678,7 +678,7 @@
         <v>.\bin\OpenPoseDemo.exe --video .\30fps_input\justin_frd2_shoot3_30fps_input.mp4 --write_video .\output_videos\justin_frd2_shoot3_30fps_output.avi --write_json .\output_jsons\justin_frd2_shoot3\ --write_images .\output_images\justin_frd2_shoot3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -699,7 +699,7 @@
         <v>.\bin\OpenPoseDemo.exe --video .\30fps_input\justin_frd2_shoot4_30fps_input.mp4 --write_video .\output_videos\justin_frd2_shoot4_30fps_output.avi --write_json .\output_jsons\justin_frd2_shoot4\ --write_images .\output_images\justin_frd2_shoot4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -720,7 +720,7 @@
         <v>.\bin\OpenPoseDemo.exe --video .\30fps_input\justin_frd2_shoot5_30fps_input.mp4 --write_video .\output_videos\justin_frd2_shoot5_30fps_output.avi --write_json .\output_jsons\justin_frd2_shoot5\ --write_images .\output_images\justin_frd2_shoot5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -741,7 +741,7 @@
         <v>.\bin\OpenPoseDemo.exe --video .\30fps_input\justin_frd3_shoot1_30fps_input.mp4 --write_video .\output_videos\justin_frd3_shoot1_30fps_output.avi --write_json .\output_jsons\justin_frd3_shoot1\ --write_images .\output_images\justin_frd3_shoot1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -762,7 +762,7 @@
         <v>.\bin\OpenPoseDemo.exe --video .\30fps_input\justin_frd3_shoot2_30fps_input.mp4 --write_video .\output_videos\justin_frd3_shoot2_30fps_output.avi --write_json .\output_jsons\justin_frd3_shoot2\ --write_images .\output_images\justin_frd3_shoot2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -783,7 +783,7 @@
         <v>.\bin\OpenPoseDemo.exe --video .\30fps_input\justin_frd3_shoot3_30fps_input.mp4 --write_video .\output_videos\justin_frd3_shoot3_30fps_output.avi --write_json .\output_jsons\justin_frd3_shoot3\ --write_images .\output_images\justin_frd3_shoot3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -804,7 +804,7 @@
         <v>.\bin\OpenPoseDemo.exe --video .\30fps_input\justin_frd3_shoot4_30fps_input.mp4 --write_video .\output_videos\justin_frd3_shoot4_30fps_output.avi --write_json .\output_jsons\justin_frd3_shoot4\ --write_images .\output_images\justin_frd3_shoot4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -825,7 +825,7 @@
         <v>.\bin\OpenPoseDemo.exe --video .\30fps_input\lee_side_shoot_30fps_input.mp4 --write_video .\output_videos\lee_side_shoot_30fps_output.avi --write_json .\output_jsons\lee_side_shoot\ --write_images .\output_images\lee_side_shoot</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -846,7 +846,7 @@
         <v>.\bin\OpenPoseDemo.exe --video .\30fps_input\trey_side_shoot_30fps_input.mp4 --write_video .\output_videos\trey_side_shoot_30fps_output.avi --write_json .\output_jsons\trey_side_shoot\ --write_images .\output_images\trey_side_shoot</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
